--- a/WCAG Checklist.xlsx
+++ b/WCAG Checklist.xlsx
@@ -25,7 +25,7 @@
     <t>WCAG Version</t>
   </si>
   <si>
-    <t>Criteria Type</t>
+    <t>User Type</t>
   </si>
   <si>
     <t>Criteria</t>
@@ -46,7 +46,7 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>Development</t>
+    <t>Developer</t>
   </si>
   <si>
     <t>Informative images with &lt;img&gt; tag must have a short alt attribute that describe their purpose</t>
